--- a/Excel/Airrefund.xlsx
+++ b/Excel/Airrefund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Username</t>
   </si>
@@ -102,7 +102,37 @@
     <t>1</t>
   </si>
   <si>
-    <t>8528528521</t>
+    <t>9310291357</t>
+  </si>
+  <si>
+    <t>atdRefundValidity1</t>
+  </si>
+  <si>
+    <t>atdRefundValidity2</t>
+  </si>
+  <si>
+    <t>atdRefundValidity3</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>ESFOUTVAT</t>
+  </si>
+  <si>
+    <t>ESFINPVAT</t>
+  </si>
+  <si>
+    <t>AtfdAirlineCancelCharge</t>
+  </si>
+  <si>
+    <t>AtfdAgentCancelCharge</t>
+  </si>
+  <si>
+    <t>Jan</t>
   </si>
 </sst>
 </file>
@@ -159,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,9 +529,15 @@
     <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="18" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +586,29 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:23">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -595,6 +656,27 @@
       </c>
       <c r="P2" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
